--- a/matching and patching/4_stenosis/5_Compare/mse_comparison_results_0_8.xlsx
+++ b/matching and patching/4_stenosis/5_Compare/mse_comparison_results_0_8.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.005186225893165004</v>
+        <v>0.00867145664353235</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003224040572930403</v>
+        <v>0.01217767338767182</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.004797725420176498</v>
+        <v>0.01920468901175843</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004907415912232635</v>
+        <v>0.02361627857697142</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.004256251653418717</v>
+        <v>0.03064592595460558</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.007781907568691885</v>
+        <v>0.03939925912931132</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.008253261205091201</v>
+        <v>0.04633977005236201</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.007947885471035664</v>
+        <v>0.06242431139157623</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01114611394301763</v>
+        <v>0.07233307405282849</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.009465156467639717</v>
+        <v>0.08377338091801359</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01165174642967029</v>
+        <v>0.1016737119300754</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.007807549190417071</v>
+        <v>0.1108770854688805</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.00874560964152256</v>
+        <v>0.1384372889071455</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.008750283750495119</v>
+        <v>0.1429916386405463</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.007018847264795576</v>
+        <v>0.162127583518391</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.006991140184356307</v>
+        <v>0.1797057658513412</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01025534246452426</v>
+        <v>0.1982773267500647</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01107041737689589</v>
+        <v>0.199384596294773</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01049460895352012</v>
+        <v>0.2249950584504831</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0100714331790586</v>
+        <v>0.2608520142046753</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.008477014019310209</v>
+        <v>0.2738261019731326</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.008819142557862239</v>
+        <v>0.3097966941691103</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.009209067821546055</v>
+        <v>0.3111981289993101</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.009315191290607438</v>
+        <v>0.3487908158292636</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01031556738073584</v>
+        <v>0.3965384344582293</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01187227542833234</v>
+        <v>0.3701350692574596</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01108552581353569</v>
+        <v>0.4216857240960307</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.01104576879584345</v>
+        <v>0.4304212340418569</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.01117401632574113</v>
+        <v>0.4485201050950058</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.01171638749721768</v>
+        <v>0.4654517728920607</v>
       </c>
     </row>
   </sheetData>

--- a/matching and patching/4_stenosis/5_Compare/mse_comparison_results_0_8.xlsx
+++ b/matching and patching/4_stenosis/5_Compare/mse_comparison_results_0_8.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.00867145664353235</v>
+        <v>0.005186225893165004</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01217767338767182</v>
+        <v>0.003224040572930403</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01920468901175843</v>
+        <v>0.004797725420176498</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02361627857697142</v>
+        <v>0.004907415912232635</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03064592595460558</v>
+        <v>0.004256251653418717</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03939925912931132</v>
+        <v>0.007781907568691885</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.04633977005236201</v>
+        <v>0.008253261205091201</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.06242431139157623</v>
+        <v>0.007947885471035664</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07233307405282849</v>
+        <v>0.01114611394301763</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08377338091801359</v>
+        <v>0.009465156467639717</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1016737119300754</v>
+        <v>0.01165174642967029</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1108770854688805</v>
+        <v>0.007807549190417071</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.1384372889071455</v>
+        <v>0.00874560964152256</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1429916386405463</v>
+        <v>0.008750283750495119</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.162127583518391</v>
+        <v>0.007018847264795576</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1797057658513412</v>
+        <v>0.006991140184356307</v>
       </c>
     </row>
     <row r="18">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1982773267500647</v>
+        <v>0.01025534246452426</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.199384596294773</v>
+        <v>0.01107041737689589</v>
       </c>
     </row>
     <row r="20">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.2249950584504831</v>
+        <v>0.01049460895352012</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2608520142046753</v>
+        <v>0.0100714331790586</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.2738261019731326</v>
+        <v>0.008477014019310209</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3097966941691103</v>
+        <v>0.008819142557862239</v>
       </c>
     </row>
     <row r="24">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3111981289993101</v>
+        <v>0.009209067821546055</v>
       </c>
     </row>
     <row r="25">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3487908158292636</v>
+        <v>0.009315191290607438</v>
       </c>
     </row>
     <row r="26">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3965384344582293</v>
+        <v>0.01031556738073584</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3701350692574596</v>
+        <v>0.01187227542833234</v>
       </c>
     </row>
     <row r="28">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4216857240960307</v>
+        <v>0.01108552581353569</v>
       </c>
     </row>
     <row r="29">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4304212340418569</v>
+        <v>0.01104576879584345</v>
       </c>
     </row>
     <row r="30">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4485201050950058</v>
+        <v>0.01117401632574113</v>
       </c>
     </row>
     <row r="31">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4654517728920607</v>
+        <v>0.01171638749721768</v>
       </c>
     </row>
   </sheetData>
